--- a/assets/List Work Order 1.xlsx
+++ b/assets/List Work Order 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annis\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backend\Final Project\Refrensi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,48 +24,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>No. Work Order</t>
+  </si>
+  <si>
+    <t>Prod. Date</t>
+  </si>
+  <si>
+    <t>Deliv. Date</t>
+  </si>
+  <si>
+    <t>Deliv. Number</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
   <si>
     <t>Part Name</t>
   </si>
   <si>
-    <t>No Work Order</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Prod Date</t>
-  </si>
-  <si>
-    <t>Quantity perbox</t>
-  </si>
-  <si>
-    <t>Total Order</t>
+    <t>Qty/Box</t>
+  </si>
+  <si>
+    <t>Total Order Pcs</t>
   </si>
   <si>
     <t>Total Box</t>
   </si>
   <si>
-    <t>Supplier</t>
+    <t>TKI</t>
+  </si>
+  <si>
+    <t>23102022SPK001</t>
+  </si>
+  <si>
+    <t>HPP</t>
+  </si>
+  <si>
+    <t>IT01-RBL0105-XX-XX</t>
   </si>
   <si>
     <t>GARNISH RR BUMPER LWR (IPL)</t>
   </si>
   <si>
-    <t>23102022SPK001</t>
-  </si>
-  <si>
-    <t>HPP</t>
-  </si>
-  <si>
-    <t>TKI</t>
+    <t>23102022SPK002</t>
+  </si>
+  <si>
+    <t>IT02-CAF0200-XX-XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        CONSOLE FLOOR FR LWR</t>
+  </si>
+  <si>
+    <t>23102022SPK003</t>
+  </si>
+  <si>
+    <t>IK01-GTG0101-XX-XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Tailgate Ikuyo</t>
+  </si>
+  <si>
+    <t>23102022SPK004</t>
+  </si>
+  <si>
+    <t>HM02-GTU0101-XX-XX</t>
+  </si>
+  <si>
+    <t>GARNISH TAILGATE UPR (IPL)</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>WO-23OCT22-001</t>
+  </si>
+  <si>
+    <t>D00238748</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>51787-OK070-C /51788-OK070-C</t>
+  </si>
+  <si>
+    <t>REINFORCEMENT STEP RH/LH</t>
+  </si>
+  <si>
+    <t>WO-23OCT22-002</t>
+  </si>
+  <si>
+    <t>D00238749</t>
+  </si>
+  <si>
+    <t>72959-X7A01-A</t>
+  </si>
+  <si>
+    <t>SPACER RR SEAT TURN SIDE</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>2022JITDDFH001</t>
+  </si>
+  <si>
+    <t>INOAC</t>
+  </si>
+  <si>
+    <t>69743-BZ040-C0</t>
+  </si>
+  <si>
+    <t>BUTTON DOOR LOCKING 202B</t>
+  </si>
+  <si>
+    <t>2022JITDDFH002</t>
+  </si>
+  <si>
+    <t>51727-OK110-C / 51728-OK110-C</t>
+  </si>
+  <si>
+    <t>REINFORCEMENT BODY RH/LH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,17 +172,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF777777"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,13 +202,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,77 +496,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="34.54296875" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
-        <v>44857</v>
-      </c>
-      <c r="F3" s="1">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123328493</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J2" s="2">
         <v>900</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K2" s="2">
         <v>90</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E3" s="2">
+        <v>123778478</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>225</v>
+      </c>
+      <c r="K3" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E4" s="2">
+        <v>123994439</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>250</v>
+      </c>
+      <c r="K4" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E5" s="2">
+        <v>123004378</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>250</v>
+      </c>
+      <c r="K5" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44859</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44859</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1850</v>
+      </c>
+      <c r="K7" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E8" s="2">
+        <v>99934384</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>200</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44857</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44857</v>
+      </c>
+      <c r="E9" s="2">
+        <v>93427478</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/List Work Order 1.xlsx
+++ b/assets/List Work Order 1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>No Work Order</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Prod Date</t>
-  </si>
-  <si>
-    <t>Quantity perbox</t>
-  </si>
-  <si>
-    <t>Total Order</t>
-  </si>
-  <si>
-    <t>Total Box</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>GARNISH RR BUMPER LWR (IPL)</t>
   </si>
@@ -60,13 +37,43 @@
   </si>
   <si>
     <t>TKI</t>
+  </si>
+  <si>
+    <t>no_work _order</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>prod_date</t>
+  </si>
+  <si>
+    <t>quantity_perbox</t>
+  </si>
+  <si>
+    <t>total_order</t>
+  </si>
+  <si>
+    <t>total_box</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>part_name</t>
+  </si>
+  <si>
+    <t>GARNISH RR BUMPER LWR (IPR)</t>
+  </si>
+  <si>
+    <t>no_work_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +84,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -104,10 +117,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +402,7 @@
   <dimension ref="B2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,41 +418,41 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>44857</v>
       </c>
       <c r="F3" s="1">
@@ -454,11 +465,45 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>